--- a/인물랭킹_연동정의서.xlsx
+++ b/인물랭킹_연동정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rentalhub-16m1/Desktop/TIL_Spring/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD5695-16FF-1540-A879-03D8EF81D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="13470"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Request</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GET {AMIMS_SERVER}/iptv/v1/real/rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>site_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,17 +251,177 @@
   <si>
     <t>전체 인물 수</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>통합 통계용 서비스명
+(U+HDTV / VIDEOLTE)
+상기 2개 이외의 서비스명은 MIMS와 협의 후 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_version</t>
+  </si>
+  <si>
+    <t>통합 통계용 UI 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">통합 통계용 이전 페이지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="LG스마트체 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[메뉴ID]메뉴명. 
+단 비디오LTE홈은 [M000000]비디오LTE홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="LG스마트체 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+메뉴 ID</t>
+    </r>
+  </si>
+  <si>
+    <t>cur_page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">통합 통계용 현재 페이지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="LG스마트체 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[메뉴ID]메뉴명. 
+단 비디오LTE홈은 [M000000]비디오LTE홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="LG스마트체 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+메뉴 ID</t>
+    </r>
+  </si>
+  <si>
+    <t>dev_info</t>
+  </si>
+  <si>
+    <t>통합 통계용 접속 단말 타입
+(PHONE, PAD, PC, TV, STB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_info</t>
+  </si>
+  <si>
+    <t>통합 통계용 OS 정보
+(android_x.x.x, ios_x.x, window_x, mos_x, linux_x.x.x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex : android_1.5, android_2.2, android_2.3.22
+    ios_5, ios_6, window_xp, window_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nw_info</t>
+  </si>
+  <si>
+    <t>통합 통계용 접속 네트워크 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G, 4G, 5G, WIFI, WIRE, ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_model</t>
+  </si>
+  <si>
+    <t>통합 통계용 단말 모델명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LE-E250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrier_type</t>
+  </si>
+  <si>
+    <t>통합 통계용 통신사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L(LGU+), K(KT), S(SKT), E(etc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 통계용 카테고리 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 통계용 카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_sid</t>
+  </si>
+  <si>
+    <t>통합 통계용 프로젝트ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET {AMIMS_SERVER}/iptv/v1/real/rank/person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -274,7 +436,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -283,7 +445,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -338,7 +500,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -451,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,9 +659,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -538,14 +697,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,16 +722,22 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9227526" cy="6459204"/>
+    <xdr:ext cx="9584227" cy="7653634"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="25888950"/>
-          <a:ext cx="9227526" cy="6459204"/>
+          <a:off x="749300" y="26784300"/>
+          <a:ext cx="9584227" cy="7653634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,7 +816,7 @@
 METHOD:GET
 URL
 http:
-{AMIMS_SERVER}/iptv/v1/real/rank?version=20140124142507&amp;sa_id=M01099999001&amp;stb_mac=vv10.9999.9001&amp;start_num=0&amp;req_count=1
+{AMIMS_SERVER}/iptv/v1/real/rank/person?version=20140124142507&amp;sa_id=M01099999001&amp;stb_mac=vv10.9999.9001&amp;start_num=0&amp;req_count=1
 </a:t>
           </a:r>
           <a:r>
@@ -1058,7 +1226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1100,7 +1268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1301,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,6 +1353,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1343,36 +1545,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
-    <col min="6" max="6" width="44.875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:8" ht="23">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1381,18 +1583,18 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:8" ht="17">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1401,7 +1603,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="17">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,27 +1614,27 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
+      <c r="B7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" ht="17">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1441,7 +1643,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="17">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1654,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1475,41 +1677,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
+    <row r="12" spans="2:8">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -1528,7 +1730,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -1547,7 +1749,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="B16" s="5">
         <v>5</v>
       </c>
@@ -1566,7 +1768,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="38.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="48">
       <c r="B17" s="5">
         <v>6</v>
       </c>
@@ -1587,7 +1789,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" s="5">
         <v>7</v>
       </c>
@@ -1606,7 +1808,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="5">
         <v>8</v>
       </c>
@@ -1617,7 +1819,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="5">
         <v>9</v>
       </c>
@@ -1628,7 +1830,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="5">
         <v>10</v>
       </c>
@@ -1639,7 +1841,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="38.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="48">
       <c r="B22" s="5">
         <v>11</v>
       </c>
@@ -1651,12 +1853,12 @@
         <v>39</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" s="5">
         <v>12</v>
       </c>
@@ -1667,7 +1869,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" s="5">
         <v>13</v>
       </c>
@@ -1678,7 +1880,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -1687,7 +1889,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1696,7 +1898,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="17">
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1909,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
@@ -1730,115 +1932,195 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+    <row r="29" spans="2:8" ht="48">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+    <row r="31" spans="2:8" ht="64">
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="2:8" ht="64">
+      <c r="B32" s="5">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="2:8" ht="32">
+      <c r="B33" s="5">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+    <row r="34" spans="2:8" ht="32">
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+    <row r="35" spans="2:8" ht="16">
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+    <row r="36" spans="2:8" ht="16">
+      <c r="B36" s="5">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="2:8" ht="16">
+      <c r="B37" s="5">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+    <row r="38" spans="2:8" ht="16">
+      <c r="B38" s="5">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+    <row r="39" spans="2:8" ht="16">
+      <c r="B39" s="5">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+    <row r="40" spans="2:8" ht="16">
+      <c r="B40" s="5">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="17">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1847,7 +2129,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="17">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1856,7 +2138,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="17">
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +2149,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
@@ -1890,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8">
       <c r="B45" s="5">
         <v>1</v>
       </c>
@@ -1907,7 +2189,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" s="5">
         <v>2</v>
       </c>
@@ -1924,7 +2206,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" s="5">
         <v>3</v>
       </c>
@@ -1943,24 +2225,24 @@
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" s="5">
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5">
         <v>50</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="5">
         <v>5</v>
       </c>
@@ -1971,13 +2253,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="5">
         <v>6</v>
       </c>
@@ -1988,18 +2270,18 @@
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="5">
         <v>7</v>
       </c>
@@ -2016,7 +2298,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="5">
         <v>8</v>
       </c>
@@ -2029,11 +2311,11 @@
       <c r="E53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="5">
         <v>9</v>
       </c>
@@ -2046,11 +2328,11 @@
       <c r="E54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="5">
         <v>10</v>
       </c>
@@ -2067,7 +2349,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="16">
       <c r="B56" s="5">
         <v>11</v>
       </c>
@@ -2086,7 +2368,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" s="5">
         <v>12</v>
       </c>
@@ -2103,24 +2385,24 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" s="5">
         <v>13</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="5">
         <v>50</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="5">
         <v>14</v>
       </c>
@@ -2131,7 +2413,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="5">
         <v>15</v>
       </c>
@@ -2142,7 +2424,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="5">
         <v>16</v>
       </c>
@@ -2153,7 +2435,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="5">
         <v>17</v>
       </c>
@@ -2164,7 +2446,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="5">
         <v>18</v>
       </c>
@@ -2175,7 +2457,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8">
       <c r="B64" s="5">
         <v>19</v>
       </c>
@@ -2186,7 +2468,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8">
       <c r="B65" s="5">
         <v>20</v>
       </c>
@@ -2197,7 +2479,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8">
       <c r="B66" s="5">
         <v>21</v>
       </c>
@@ -2208,7 +2490,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8">
       <c r="B67" s="5">
         <v>22</v>
       </c>
@@ -2219,7 +2501,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8">
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
@@ -2228,7 +2510,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8">
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5"/>
@@ -2237,7 +2519,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
@@ -2246,7 +2528,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
@@ -2255,7 +2537,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
@@ -2264,7 +2546,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
@@ -2273,7 +2555,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
@@ -2282,7 +2564,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5"/>
@@ -2291,7 +2573,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5"/>
@@ -2300,7 +2582,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5"/>
@@ -2309,7 +2591,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="5"/>
@@ -2318,7 +2600,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
@@ -2327,7 +2609,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="5"/>
@@ -2336,7 +2618,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="5"/>
@@ -2345,7 +2627,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="5"/>
@@ -2354,7 +2636,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="5"/>
@@ -2363,7 +2645,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="5"/>
@@ -2372,7 +2654,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="5"/>
@@ -2381,7 +2663,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="5"/>
@@ -2390,7 +2672,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
@@ -2399,7 +2681,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="5"/>
@@ -2408,7 +2690,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="5"/>
@@ -2417,7 +2699,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="5"/>
@@ -2426,7 +2708,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="5"/>
@@ -2435,7 +2717,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="5"/>
@@ -2444,7 +2726,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="5"/>
@@ -2453,7 +2735,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="5"/>
@@ -2462,7 +2744,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="5"/>
@@ -2471,7 +2753,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="5"/>
@@ -2480,7 +2762,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5"/>
@@ -2489,7 +2771,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="5"/>
@@ -2498,7 +2780,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="5"/>
@@ -2507,7 +2789,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="5"/>
@@ -2516,7 +2798,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8">
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="5"/>
@@ -2525,7 +2807,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8">
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="5"/>
@@ -2534,7 +2816,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8">
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="5"/>
@@ -2543,7 +2825,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8">
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
@@ -2552,7 +2834,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8">
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
@@ -2561,7 +2843,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8">
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
@@ -2570,7 +2852,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8">
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="5"/>
@@ -2579,7 +2861,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8">
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="5"/>
@@ -2588,7 +2870,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
@@ -2597,7 +2879,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8">
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="5"/>
@@ -2606,7 +2888,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8">
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="5"/>
@@ -2615,7 +2897,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8">
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="5"/>
@@ -2624,7 +2906,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="5"/>
@@ -2633,7 +2915,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8">
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="5"/>
@@ -2642,7 +2924,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8">
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="5"/>
@@ -2651,7 +2933,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8">
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="5"/>
@@ -2660,7 +2942,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8">
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="5"/>
@@ -2669,8 +2951,8 @@
       <c r="G117" s="5"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B123" s="22" t="s">
+    <row r="123" spans="2:8">
+      <c r="B123" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2683,17 +2965,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
